--- a/Results/TinyMPC CDC benchmarks/Safety Filter/Memory Footprint Safety Filter TinyMPC.xlsx
+++ b/Results/TinyMPC CDC benchmarks/Safety Filter/Memory Footprint Safety Filter TinyMPC.xlsx
@@ -51,7 +51,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -72,11 +72,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -103,6 +117,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,26 +1732,38 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>4.0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="C1" s="9">
         <v>10.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="9">
         <v>16.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="9">
         <v>22.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="9">
         <v>30.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="9">
+        <v>32.0</v>
+      </c>
+      <c r="H1" s="9">
         <v>40.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="9">
         <v>50.0</v>
+      </c>
+      <c r="J1" s="9">
+        <v>64.0</v>
+      </c>
+      <c r="K1" s="9">
+        <v>100.0</v>
       </c>
     </row>
     <row r="2">
@@ -1742,22 +1771,34 @@
         <v>213384.0</v>
       </c>
       <c r="B2" s="8">
+        <v>214296.0</v>
+      </c>
+      <c r="C2" s="8">
         <v>215360.0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>218152.0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>221416.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>225704.0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
+        <v>226768.0</v>
+      </c>
+      <c r="H2" s="8">
         <v>231080.0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="I2" s="8">
         <v>236512.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>244096.0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>263536.0</v>
       </c>
     </row>
     <row r="3">
@@ -1765,22 +1806,34 @@
         <v>15860.0</v>
       </c>
       <c r="B3" s="8">
+        <v>18020.0</v>
+      </c>
+      <c r="C3" s="8">
         <v>19140.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>22340.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>25620.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>29940.0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
+        <v>30980.0</v>
+      </c>
+      <c r="H3" s="8">
         <v>35300.0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>40740.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>48260.0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>67700.0</v>
       </c>
     </row>
     <row r="4">
@@ -1788,22 +1841,34 @@
         <v>208.86</v>
       </c>
       <c r="B4" s="8">
+        <v>209.75</v>
+      </c>
+      <c r="C4" s="8">
         <v>210.79</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>213.51</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>216.7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>220.89</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
+        <v>221.93</v>
+      </c>
+      <c r="H4" s="8">
         <v>226.14</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>231.44</v>
+      </c>
+      <c r="J4" s="8">
+        <v>238.85</v>
+      </c>
+      <c r="K4" s="8">
+        <v>257.83</v>
       </c>
     </row>
     <row r="5">
@@ -1814,6 +1879,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="8"/>
@@ -1823,6 +1892,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="8"/>
@@ -1832,6 +1905,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="8"/>
@@ -1841,6 +1918,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="8"/>
@@ -1850,6 +1931,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="8"/>
@@ -1859,6 +1944,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
@@ -1868,6 +1957,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="8"/>
@@ -1877,6 +1970,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -1886,6 +1983,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -1895,6 +1996,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
@@ -1904,6 +2009,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
@@ -1913,6 +2022,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
@@ -1922,6 +2035,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
@@ -1931,6 +2048,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
@@ -1940,6 +2061,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
@@ -1949,6 +2074,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
@@ -1958,6 +2087,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="8"/>
@@ -1967,6 +2100,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
@@ -1976,6 +2113,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
@@ -1985,6 +2126,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
@@ -1994,6 +2139,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
@@ -2003,6 +2152,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -2012,6 +2165,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="8"/>
@@ -2021,6 +2178,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -2030,6 +2191,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
@@ -2039,6 +2204,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="8"/>
@@ -2048,6 +2217,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -2057,6 +2230,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -2066,6 +2243,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="8"/>
@@ -2075,6 +2256,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="8"/>
@@ -2084,6 +2269,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -2093,6 +2282,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="8"/>
@@ -2102,6 +2295,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
@@ -2111,6 +2308,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
@@ -2120,6 +2321,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="8"/>
@@ -2129,6 +2334,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
@@ -2138,6 +2347,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="8"/>
@@ -2147,6 +2360,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="8"/>
@@ -2156,6 +2373,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="8"/>
@@ -2165,6 +2386,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="8"/>
@@ -2174,6 +2399,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="8"/>
@@ -2183,6 +2412,10 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47">
       <c r="A47" s="8"/>
@@ -2192,6 +2425,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="8"/>
@@ -2201,6 +2438,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="8"/>
@@ -2210,6 +2451,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50">
       <c r="A50" s="8"/>
@@ -2219,6 +2464,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51">
       <c r="A51" s="8"/>
@@ -2228,6 +2477,10 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="8"/>
@@ -2237,6 +2490,10 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="8"/>
@@ -2246,6 +2503,10 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="8"/>
@@ -2255,6 +2516,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55">
       <c r="A55" s="8"/>
@@ -2264,6 +2529,10 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56">
       <c r="A56" s="8"/>
@@ -2273,6 +2542,10 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57">
       <c r="A57" s="8"/>
@@ -2282,6 +2555,10 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58">
       <c r="A58" s="8"/>
@@ -2291,6 +2568,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="8"/>
@@ -2300,6 +2581,10 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60">
       <c r="A60" s="8"/>
@@ -2309,6 +2594,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61">
       <c r="A61" s="8"/>
@@ -2318,6 +2607,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62">
       <c r="A62" s="8"/>
@@ -2327,6 +2620,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63">
       <c r="A63" s="8"/>
@@ -2336,6 +2633,10 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64">
       <c r="A64" s="8"/>
@@ -2345,6 +2646,10 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65">
       <c r="A65" s="8"/>
@@ -2354,6 +2659,10 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66">
       <c r="A66" s="8"/>
@@ -2363,6 +2672,10 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
     </row>
     <row r="67">
       <c r="A67" s="8"/>
@@ -2372,6 +2685,10 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68">
       <c r="A68" s="8"/>
@@ -2381,6 +2698,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
     </row>
     <row r="69">
       <c r="A69" s="8"/>
@@ -2390,6 +2711,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70">
       <c r="A70" s="8"/>
@@ -2399,6 +2724,10 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
     </row>
     <row r="71">
       <c r="A71" s="8"/>
@@ -2408,6 +2737,10 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72">
       <c r="A72" s="8"/>
@@ -2417,6 +2750,10 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
     </row>
     <row r="73">
       <c r="A73" s="8"/>
@@ -2426,6 +2763,10 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
     </row>
     <row r="74">
       <c r="A74" s="8"/>
@@ -2435,6 +2776,10 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
     </row>
     <row r="75">
       <c r="A75" s="8"/>
@@ -2444,6 +2789,10 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
     </row>
     <row r="76">
       <c r="A76" s="8"/>
@@ -2453,6 +2802,10 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77">
       <c r="A77" s="8"/>
@@ -2462,6 +2815,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
     </row>
     <row r="78">
       <c r="A78" s="8"/>
@@ -2471,6 +2828,10 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
     </row>
     <row r="79">
       <c r="A79" s="8"/>
@@ -2480,6 +2841,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
     </row>
     <row r="80">
       <c r="A80" s="8"/>
@@ -2489,6 +2854,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
@@ -2498,6 +2867,10 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="8"/>
@@ -2507,6 +2880,10 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
@@ -2516,6 +2893,10 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
     </row>
     <row r="84">
       <c r="A84" s="8"/>
@@ -2525,6 +2906,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
     </row>
     <row r="85">
       <c r="A85" s="8"/>
@@ -2534,6 +2919,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
     </row>
     <row r="86">
       <c r="A86" s="8"/>
@@ -2543,6 +2932,10 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
     </row>
     <row r="87">
       <c r="A87" s="8"/>
@@ -2552,6 +2945,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
     </row>
     <row r="88">
       <c r="A88" s="8"/>
@@ -2561,6 +2958,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
     </row>
     <row r="89">
       <c r="A89" s="8"/>
@@ -2570,6 +2971,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
     </row>
     <row r="90">
       <c r="A90" s="8"/>
@@ -2579,6 +2984,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
     </row>
     <row r="91">
       <c r="A91" s="8"/>
@@ -2588,6 +2997,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
     </row>
     <row r="92">
       <c r="A92" s="8"/>
@@ -2597,6 +3010,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
     </row>
     <row r="93">
       <c r="A93" s="8"/>
@@ -2606,6 +3023,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
     </row>
     <row r="94">
       <c r="A94" s="8"/>
@@ -2615,6 +3036,10 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
     </row>
     <row r="95">
       <c r="A95" s="8"/>
@@ -2624,6 +3049,10 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
     </row>
     <row r="96">
       <c r="A96" s="8"/>
@@ -2633,6 +3062,10 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
     </row>
     <row r="97">
       <c r="A97" s="8"/>
@@ -2642,6 +3075,10 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
     </row>
     <row r="98">
       <c r="A98" s="8"/>
@@ -2651,6 +3088,10 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="99">
       <c r="A99" s="8"/>
@@ -2660,6 +3101,10 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
     </row>
     <row r="100">
       <c r="A100" s="8"/>
@@ -2669,6 +3114,10 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
     </row>
     <row r="101">
       <c r="A101" s="8"/>
@@ -2678,6 +3127,10 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
     </row>
     <row r="102">
       <c r="A102" s="8"/>
@@ -2687,6 +3140,10 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
     </row>
     <row r="103">
       <c r="A103" s="8"/>
@@ -2696,6 +3153,10 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
     </row>
     <row r="104">
       <c r="A104" s="8"/>
@@ -2705,6 +3166,10 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
     </row>
     <row r="105">
       <c r="A105" s="8"/>
@@ -2714,6 +3179,10 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
     </row>
     <row r="106">
       <c r="A106" s="8"/>
@@ -2723,6 +3192,10 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
     </row>
     <row r="107">
       <c r="A107" s="8"/>
@@ -2732,6 +3205,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
     </row>
     <row r="108">
       <c r="A108" s="8"/>
@@ -2741,6 +3218,10 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
     </row>
     <row r="109">
       <c r="A109" s="8"/>
@@ -2750,6 +3231,10 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
     </row>
     <row r="110">
       <c r="A110" s="8"/>
@@ -2759,6 +3244,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
     </row>
     <row r="111">
       <c r="A111" s="8"/>
@@ -2768,6 +3257,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
     </row>
     <row r="112">
       <c r="A112" s="8"/>
@@ -2777,6 +3270,10 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
     </row>
     <row r="113">
       <c r="A113" s="8"/>
@@ -2786,6 +3283,10 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
     </row>
     <row r="114">
       <c r="A114" s="8"/>
@@ -2795,6 +3296,10 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
     </row>
     <row r="115">
       <c r="A115" s="8"/>
@@ -2804,6 +3309,10 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
     </row>
     <row r="116">
       <c r="A116" s="8"/>
@@ -2813,6 +3322,10 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
     </row>
     <row r="117">
       <c r="A117" s="8"/>
@@ -2822,6 +3335,10 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
     </row>
     <row r="118">
       <c r="A118" s="8"/>
@@ -2831,6 +3348,10 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
     </row>
     <row r="119">
       <c r="A119" s="8"/>
@@ -2840,6 +3361,10 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
     </row>
     <row r="120">
       <c r="A120" s="8"/>
@@ -2849,6 +3374,10 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
     </row>
     <row r="121">
       <c r="A121" s="8"/>
@@ -2858,6 +3387,10 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
     </row>
     <row r="122">
       <c r="A122" s="8"/>
@@ -2867,6 +3400,10 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
     </row>
     <row r="123">
       <c r="A123" s="8"/>
@@ -2876,6 +3413,10 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
     </row>
     <row r="124">
       <c r="A124" s="8"/>
@@ -2885,6 +3426,10 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
     </row>
     <row r="125">
       <c r="A125" s="8"/>
@@ -2894,6 +3439,10 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
     </row>
     <row r="126">
       <c r="A126" s="8"/>
@@ -2903,6 +3452,10 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
     </row>
     <row r="127">
       <c r="A127" s="8"/>
@@ -2912,6 +3465,10 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
     </row>
     <row r="128">
       <c r="A128" s="8"/>
@@ -2921,6 +3478,10 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
     </row>
     <row r="129">
       <c r="A129" s="8"/>
@@ -2930,6 +3491,10 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
     </row>
     <row r="130">
       <c r="A130" s="8"/>
@@ -2939,6 +3504,10 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
     </row>
     <row r="131">
       <c r="A131" s="8"/>
@@ -2948,6 +3517,10 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
     </row>
     <row r="132">
       <c r="A132" s="8"/>
@@ -2957,6 +3530,10 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
     </row>
     <row r="133">
       <c r="A133" s="8"/>
@@ -2966,6 +3543,10 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
     </row>
     <row r="134">
       <c r="A134" s="8"/>
@@ -2975,6 +3556,10 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
     </row>
     <row r="135">
       <c r="A135" s="8"/>
@@ -2984,6 +3569,10 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
     </row>
     <row r="136">
       <c r="A136" s="8"/>
@@ -2993,6 +3582,10 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
     </row>
     <row r="137">
       <c r="A137" s="8"/>
@@ -3002,6 +3595,10 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
     </row>
     <row r="138">
       <c r="A138" s="8"/>
@@ -3011,6 +3608,10 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
     </row>
     <row r="139">
       <c r="A139" s="8"/>
@@ -3020,6 +3621,10 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
     </row>
     <row r="140">
       <c r="A140" s="8"/>
@@ -3029,6 +3634,10 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
     </row>
     <row r="141">
       <c r="A141" s="8"/>
@@ -3038,6 +3647,10 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
     </row>
     <row r="142">
       <c r="A142" s="8"/>
@@ -3047,6 +3660,10 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
     </row>
     <row r="143">
       <c r="A143" s="8"/>
@@ -3056,6 +3673,10 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
     </row>
     <row r="144">
       <c r="A144" s="8"/>
@@ -3065,6 +3686,10 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
     </row>
     <row r="145">
       <c r="A145" s="8"/>
@@ -3074,6 +3699,10 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
     </row>
     <row r="146">
       <c r="A146" s="8"/>
@@ -3083,6 +3712,10 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
     </row>
     <row r="147">
       <c r="A147" s="8"/>
@@ -3092,6 +3725,10 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
     </row>
     <row r="148">
       <c r="A148" s="8"/>
@@ -3101,6 +3738,10 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
     </row>
     <row r="149">
       <c r="A149" s="8"/>
@@ -3110,6 +3751,10 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
     </row>
     <row r="150">
       <c r="A150" s="8"/>
@@ -3119,6 +3764,10 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
     </row>
     <row r="151">
       <c r="A151" s="8"/>
@@ -3128,6 +3777,10 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
     </row>
     <row r="152">
       <c r="A152" s="8"/>
@@ -3137,6 +3790,10 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
     </row>
     <row r="153">
       <c r="A153" s="8"/>
@@ -3146,6 +3803,10 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
     </row>
     <row r="154">
       <c r="A154" s="8"/>
@@ -3155,6 +3816,10 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
     </row>
     <row r="155">
       <c r="A155" s="8"/>
@@ -3164,6 +3829,10 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
     </row>
     <row r="156">
       <c r="A156" s="8"/>
@@ -3173,6 +3842,10 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
     </row>
     <row r="157">
       <c r="A157" s="8"/>
@@ -3182,6 +3855,10 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
     </row>
     <row r="158">
       <c r="A158" s="8"/>
@@ -3191,6 +3868,10 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
     </row>
     <row r="159">
       <c r="A159" s="8"/>
@@ -3200,6 +3881,10 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
     </row>
     <row r="160">
       <c r="A160" s="8"/>
@@ -3209,6 +3894,10 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
     </row>
     <row r="161">
       <c r="A161" s="8"/>
@@ -3218,6 +3907,10 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
     </row>
     <row r="162">
       <c r="A162" s="8"/>
@@ -3227,6 +3920,10 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
     </row>
     <row r="163">
       <c r="A163" s="8"/>
@@ -3236,6 +3933,10 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
     </row>
     <row r="164">
       <c r="A164" s="8"/>
@@ -3245,6 +3946,10 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
     </row>
     <row r="165">
       <c r="A165" s="8"/>
@@ -3254,6 +3959,10 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
     </row>
     <row r="166">
       <c r="A166" s="8"/>
@@ -3263,6 +3972,10 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
     </row>
     <row r="167">
       <c r="A167" s="8"/>
@@ -3272,6 +3985,10 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
     </row>
     <row r="168">
       <c r="A168" s="8"/>
@@ -3281,6 +3998,10 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
     </row>
     <row r="169">
       <c r="A169" s="8"/>
@@ -3290,6 +4011,10 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
     </row>
     <row r="170">
       <c r="A170" s="8"/>
@@ -3299,6 +4024,10 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
     </row>
     <row r="171">
       <c r="A171" s="8"/>
@@ -3308,6 +4037,10 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
     </row>
     <row r="172">
       <c r="A172" s="8"/>
@@ -3317,6 +4050,10 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
     </row>
     <row r="173">
       <c r="A173" s="8"/>
@@ -3326,6 +4063,10 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
     </row>
     <row r="174">
       <c r="A174" s="8"/>
@@ -3335,6 +4076,10 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
     </row>
     <row r="175">
       <c r="A175" s="8"/>
@@ -3344,6 +4089,10 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
     </row>
     <row r="176">
       <c r="A176" s="8"/>
@@ -3353,6 +4102,10 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
     </row>
     <row r="177">
       <c r="A177" s="8"/>
@@ -3362,6 +4115,10 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
     </row>
     <row r="178">
       <c r="A178" s="8"/>
@@ -3371,6 +4128,10 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
     </row>
     <row r="179">
       <c r="A179" s="8"/>
@@ -3380,6 +4141,10 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
     </row>
     <row r="180">
       <c r="A180" s="8"/>
@@ -3389,6 +4154,10 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
     </row>
     <row r="181">
       <c r="A181" s="8"/>
@@ -3398,6 +4167,10 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
     </row>
     <row r="182">
       <c r="A182" s="8"/>
@@ -3407,6 +4180,10 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
     </row>
     <row r="183">
       <c r="A183" s="8"/>
@@ -3416,6 +4193,10 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
     </row>
     <row r="184">
       <c r="A184" s="8"/>
@@ -3425,6 +4206,10 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
     </row>
     <row r="185">
       <c r="A185" s="8"/>
@@ -3434,6 +4219,10 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
     </row>
     <row r="186">
       <c r="A186" s="8"/>
@@ -3443,6 +4232,10 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
     </row>
     <row r="187">
       <c r="A187" s="8"/>
@@ -3452,6 +4245,10 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
     </row>
     <row r="188">
       <c r="A188" s="8"/>
@@ -3461,6 +4258,10 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3482,22 +4283,34 @@
         <v>4.0</v>
       </c>
       <c r="B1" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="C1" s="9">
         <v>10.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="9">
         <v>16.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="9">
         <v>22.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="9">
         <v>30.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="9">
+        <v>32.0</v>
+      </c>
+      <c r="H1" s="9">
         <v>40.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="9">
         <v>50.0</v>
+      </c>
+      <c r="J1" s="9">
+        <v>64.0</v>
+      </c>
+      <c r="K1" s="9">
+        <v>100.0</v>
       </c>
     </row>
     <row r="2">
@@ -3505,22 +4318,34 @@
         <v>213496.0</v>
       </c>
       <c r="B2" s="8">
+        <v>214392.0</v>
+      </c>
+      <c r="C2" s="8">
         <v>215488.0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>225384.0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>221536.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>225824.0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
+        <v>226880.0</v>
+      </c>
+      <c r="H2" s="8">
         <v>231200.0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="I2" s="8">
         <v>236632.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>244208.0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>263648.0</v>
       </c>
     </row>
     <row r="3">
@@ -3528,22 +4353,34 @@
         <v>15860.0</v>
       </c>
       <c r="B3" s="8">
+        <v>18020.0</v>
+      </c>
+      <c r="C3" s="8">
         <v>19140.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>25012.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>25620.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>29940.0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
+        <v>30980.0</v>
+      </c>
+      <c r="H3" s="8">
         <v>35300.0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>40740.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>48260.0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>67700.0</v>
       </c>
     </row>
     <row r="4">
@@ -3551,22 +4388,34 @@
         <v>208.96</v>
       </c>
       <c r="B4" s="8">
+        <v>209.84</v>
+      </c>
+      <c r="C4" s="8">
         <v>210.91</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>220.57</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>216.82</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>221.0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
+        <v>222.04</v>
+      </c>
+      <c r="H4" s="8">
         <v>226.25</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>231.56</v>
+      </c>
+      <c r="J4" s="8">
+        <v>238.96</v>
+      </c>
+      <c r="K4" s="8">
+        <v>257.94</v>
       </c>
     </row>
     <row r="5">
@@ -3577,6 +4426,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="8"/>
@@ -3586,6 +4439,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="8"/>
@@ -3595,6 +4452,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="8"/>
@@ -3604,6 +4465,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="8"/>
@@ -3613,6 +4478,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="8"/>
@@ -3622,6 +4491,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
@@ -3631,6 +4504,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="8"/>
@@ -3640,6 +4517,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -3649,6 +4530,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -3658,6 +4543,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
@@ -3667,6 +4556,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
@@ -3676,6 +4569,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
@@ -3685,6 +4582,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
@@ -3694,6 +4595,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
@@ -3703,6 +4608,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
@@ -3712,6 +4621,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
@@ -3721,6 +4634,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="8"/>
@@ -3730,6 +4647,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
@@ -3739,6 +4660,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
@@ -3748,6 +4673,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
@@ -3757,6 +4686,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
@@ -3766,6 +4699,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -3775,6 +4712,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="8"/>
@@ -3784,6 +4725,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -3793,6 +4738,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
@@ -3802,6 +4751,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="8"/>
@@ -3811,6 +4764,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -3820,6 +4777,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -3829,6 +4790,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="8"/>
@@ -3838,6 +4803,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="8"/>
@@ -3847,6 +4816,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -3856,6 +4829,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="8"/>
@@ -3865,6 +4842,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
@@ -3874,6 +4855,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
@@ -3883,6 +4868,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="8"/>
@@ -3892,6 +4881,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
@@ -3901,6 +4894,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="8"/>
@@ -3910,6 +4907,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="8"/>
@@ -3919,6 +4920,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="8"/>
@@ -3928,6 +4933,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="8"/>
@@ -3937,6 +4946,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="8"/>
@@ -3946,6 +4959,10 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47">
       <c r="A47" s="8"/>
@@ -3955,6 +4972,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="8"/>
@@ -3964,6 +4985,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="8"/>
@@ -3973,6 +4998,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50">
       <c r="A50" s="8"/>
@@ -3982,6 +5011,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51">
       <c r="A51" s="8"/>
@@ -3991,6 +5024,10 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="8"/>
@@ -4000,6 +5037,10 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="8"/>
@@ -4009,6 +5050,10 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="8"/>
@@ -4018,6 +5063,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55">
       <c r="A55" s="8"/>
@@ -4027,6 +5076,10 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56">
       <c r="A56" s="8"/>
@@ -4036,6 +5089,10 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57">
       <c r="A57" s="8"/>
@@ -4045,6 +5102,10 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58">
       <c r="A58" s="8"/>
@@ -4054,6 +5115,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="8"/>
@@ -4063,6 +5128,10 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60">
       <c r="A60" s="8"/>
@@ -4072,6 +5141,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61">
       <c r="A61" s="8"/>
@@ -4081,6 +5154,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62">
       <c r="A62" s="8"/>
@@ -4090,6 +5167,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63">
       <c r="A63" s="8"/>
@@ -4099,6 +5180,10 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64">
       <c r="A64" s="8"/>
@@ -4108,6 +5193,10 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65">
       <c r="A65" s="8"/>
@@ -4117,6 +5206,10 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66">
       <c r="A66" s="8"/>
@@ -4126,6 +5219,10 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
     </row>
     <row r="67">
       <c r="A67" s="8"/>
@@ -4135,6 +5232,10 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68">
       <c r="A68" s="8"/>
@@ -4144,6 +5245,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
     </row>
     <row r="69">
       <c r="A69" s="8"/>
@@ -4153,6 +5258,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70">
       <c r="A70" s="8"/>
@@ -4162,6 +5271,10 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
     </row>
     <row r="71">
       <c r="A71" s="8"/>
@@ -4171,6 +5284,10 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72">
       <c r="A72" s="8"/>
@@ -4180,6 +5297,10 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
     </row>
     <row r="73">
       <c r="A73" s="8"/>
@@ -4189,6 +5310,10 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
     </row>
     <row r="74">
       <c r="A74" s="8"/>
@@ -4198,6 +5323,10 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
     </row>
     <row r="75">
       <c r="A75" s="8"/>
@@ -4207,6 +5336,10 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
     </row>
     <row r="76">
       <c r="A76" s="8"/>
@@ -4216,6 +5349,10 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77">
       <c r="A77" s="8"/>
@@ -4225,6 +5362,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
     </row>
     <row r="78">
       <c r="A78" s="8"/>
@@ -4234,6 +5375,10 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
     </row>
     <row r="79">
       <c r="A79" s="8"/>
@@ -4243,6 +5388,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
     </row>
     <row r="80">
       <c r="A80" s="8"/>
@@ -4252,6 +5401,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
@@ -4261,6 +5414,10 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="8"/>
@@ -4270,6 +5427,10 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
@@ -4279,6 +5440,10 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
     </row>
     <row r="84">
       <c r="A84" s="8"/>
@@ -4288,6 +5453,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
     </row>
     <row r="85">
       <c r="A85" s="8"/>
@@ -4297,6 +5466,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
     </row>
     <row r="86">
       <c r="A86" s="8"/>
@@ -4306,6 +5479,10 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
     </row>
     <row r="87">
       <c r="A87" s="8"/>
@@ -4315,6 +5492,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
     </row>
     <row r="88">
       <c r="A88" s="8"/>
@@ -4324,6 +5505,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
     </row>
     <row r="89">
       <c r="A89" s="8"/>
@@ -4333,6 +5518,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
     </row>
     <row r="90">
       <c r="A90" s="8"/>
@@ -4342,6 +5531,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
     </row>
     <row r="91">
       <c r="A91" s="8"/>
@@ -4351,6 +5544,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
     </row>
     <row r="92">
       <c r="A92" s="8"/>
@@ -4360,6 +5557,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
     </row>
     <row r="93">
       <c r="A93" s="8"/>
@@ -4369,6 +5570,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
     </row>
     <row r="94">
       <c r="A94" s="8"/>
@@ -4378,6 +5583,10 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
     </row>
     <row r="95">
       <c r="A95" s="8"/>
@@ -4387,6 +5596,10 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
     </row>
     <row r="96">
       <c r="A96" s="8"/>
@@ -4396,6 +5609,10 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
     </row>
     <row r="97">
       <c r="A97" s="8"/>
@@ -4405,6 +5622,10 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
     </row>
     <row r="98">
       <c r="A98" s="8"/>
@@ -4414,6 +5635,10 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="99">
       <c r="A99" s="8"/>
@@ -4423,6 +5648,10 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
     </row>
     <row r="100">
       <c r="A100" s="8"/>
@@ -4432,6 +5661,10 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
     </row>
     <row r="101">
       <c r="A101" s="8"/>
@@ -4441,6 +5674,10 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
     </row>
     <row r="102">
       <c r="A102" s="8"/>
@@ -4450,6 +5687,10 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
     </row>
     <row r="103">
       <c r="A103" s="8"/>
@@ -4459,6 +5700,10 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
     </row>
     <row r="104">
       <c r="A104" s="8"/>
@@ -4468,6 +5713,10 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
     </row>
     <row r="105">
       <c r="A105" s="8"/>
@@ -4477,6 +5726,10 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
     </row>
     <row r="106">
       <c r="A106" s="8"/>
@@ -4486,6 +5739,10 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
     </row>
     <row r="107">
       <c r="A107" s="8"/>
@@ -4495,6 +5752,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
     </row>
     <row r="108">
       <c r="A108" s="8"/>
@@ -4504,6 +5765,10 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
     </row>
     <row r="109">
       <c r="A109" s="8"/>
@@ -4513,6 +5778,10 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
     </row>
     <row r="110">
       <c r="A110" s="8"/>
@@ -4522,6 +5791,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
     </row>
     <row r="111">
       <c r="A111" s="8"/>
@@ -4531,6 +5804,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
     </row>
     <row r="112">
       <c r="A112" s="8"/>
@@ -4540,6 +5817,10 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
     </row>
     <row r="113">
       <c r="A113" s="8"/>
@@ -4549,6 +5830,10 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
     </row>
     <row r="114">
       <c r="A114" s="8"/>
@@ -4558,6 +5843,10 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
     </row>
     <row r="115">
       <c r="A115" s="8"/>
@@ -4567,6 +5856,10 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
     </row>
     <row r="116">
       <c r="A116" s="8"/>
@@ -4576,6 +5869,10 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
     </row>
     <row r="117">
       <c r="A117" s="8"/>
@@ -4585,6 +5882,10 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
     </row>
     <row r="118">
       <c r="A118" s="8"/>
@@ -4594,6 +5895,10 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
     </row>
     <row r="119">
       <c r="A119" s="8"/>
@@ -4603,6 +5908,10 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
     </row>
     <row r="120">
       <c r="A120" s="8"/>
@@ -4612,6 +5921,10 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
     </row>
     <row r="121">
       <c r="A121" s="8"/>
@@ -4621,6 +5934,10 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
     </row>
     <row r="122">
       <c r="A122" s="8"/>
@@ -4630,6 +5947,10 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
     </row>
     <row r="123">
       <c r="A123" s="8"/>
@@ -4639,6 +5960,10 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
     </row>
     <row r="124">
       <c r="A124" s="8"/>
@@ -4648,6 +5973,10 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
     </row>
     <row r="125">
       <c r="A125" s="8"/>
@@ -4657,6 +5986,10 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
     </row>
     <row r="126">
       <c r="A126" s="8"/>
@@ -4666,6 +5999,10 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
     </row>
     <row r="127">
       <c r="A127" s="8"/>
@@ -4675,6 +6012,10 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
     </row>
     <row r="128">
       <c r="A128" s="8"/>
@@ -4684,6 +6025,10 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
     </row>
     <row r="129">
       <c r="A129" s="8"/>
@@ -4693,6 +6038,10 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
     </row>
     <row r="130">
       <c r="A130" s="8"/>
@@ -4702,6 +6051,10 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
     </row>
     <row r="131">
       <c r="A131" s="8"/>
@@ -4711,6 +6064,10 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
     </row>
     <row r="132">
       <c r="A132" s="8"/>
@@ -4720,6 +6077,10 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
     </row>
     <row r="133">
       <c r="A133" s="8"/>
@@ -4729,6 +6090,10 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
     </row>
     <row r="134">
       <c r="A134" s="8"/>
@@ -4738,6 +6103,10 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
     </row>
     <row r="135">
       <c r="A135" s="8"/>
@@ -4747,6 +6116,10 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
     </row>
     <row r="136">
       <c r="A136" s="8"/>
@@ -4756,6 +6129,10 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
     </row>
     <row r="137">
       <c r="A137" s="8"/>
@@ -4765,6 +6142,10 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
     </row>
     <row r="138">
       <c r="A138" s="8"/>
@@ -4774,6 +6155,10 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
     </row>
     <row r="139">
       <c r="A139" s="8"/>
@@ -4783,6 +6168,10 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
     </row>
     <row r="140">
       <c r="A140" s="8"/>
@@ -4792,6 +6181,10 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
     </row>
     <row r="141">
       <c r="A141" s="8"/>
@@ -4801,6 +6194,10 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
     </row>
     <row r="142">
       <c r="A142" s="8"/>
@@ -4810,6 +6207,10 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
     </row>
     <row r="143">
       <c r="A143" s="8"/>
@@ -4819,6 +6220,10 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
     </row>
     <row r="144">
       <c r="A144" s="8"/>
@@ -4828,6 +6233,10 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
     </row>
     <row r="145">
       <c r="A145" s="8"/>
@@ -4837,6 +6246,10 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
     </row>
     <row r="146">
       <c r="A146" s="8"/>
@@ -4846,6 +6259,10 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
     </row>
     <row r="147">
       <c r="A147" s="8"/>
@@ -4855,6 +6272,10 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
     </row>
     <row r="148">
       <c r="A148" s="8"/>
@@ -4864,6 +6285,10 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
     </row>
     <row r="149">
       <c r="A149" s="8"/>
@@ -4873,6 +6298,10 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
     </row>
     <row r="150">
       <c r="A150" s="8"/>
@@ -4882,6 +6311,10 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
     </row>
     <row r="151">
       <c r="A151" s="8"/>
@@ -4891,6 +6324,10 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
     </row>
     <row r="152">
       <c r="A152" s="8"/>
@@ -4900,6 +6337,10 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
     </row>
     <row r="153">
       <c r="A153" s="8"/>
@@ -4909,6 +6350,10 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
     </row>
     <row r="154">
       <c r="A154" s="8"/>
@@ -4918,6 +6363,10 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
     </row>
     <row r="155">
       <c r="A155" s="8"/>
@@ -4927,6 +6376,10 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
     </row>
     <row r="156">
       <c r="A156" s="8"/>
@@ -4936,6 +6389,10 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
     </row>
     <row r="157">
       <c r="A157" s="8"/>
@@ -4945,6 +6402,10 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
     </row>
     <row r="158">
       <c r="A158" s="8"/>
@@ -4954,6 +6415,10 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
     </row>
     <row r="159">
       <c r="A159" s="8"/>
@@ -4963,6 +6428,10 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
     </row>
     <row r="160">
       <c r="A160" s="8"/>
@@ -4972,6 +6441,10 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
     </row>
     <row r="161">
       <c r="A161" s="8"/>
@@ -4981,6 +6454,10 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
     </row>
     <row r="162">
       <c r="A162" s="8"/>
@@ -4990,6 +6467,10 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
     </row>
     <row r="163">
       <c r="A163" s="8"/>
@@ -4999,6 +6480,10 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
     </row>
     <row r="164">
       <c r="A164" s="8"/>
@@ -5008,6 +6493,10 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
     </row>
     <row r="165">
       <c r="A165" s="8"/>
@@ -5017,6 +6506,10 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
     </row>
     <row r="166">
       <c r="A166" s="8"/>
@@ -5026,6 +6519,10 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
     </row>
     <row r="167">
       <c r="A167" s="8"/>
@@ -5035,6 +6532,10 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
     </row>
     <row r="168">
       <c r="A168" s="8"/>
@@ -5044,6 +6545,10 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
     </row>
     <row r="169">
       <c r="A169" s="8"/>
@@ -5053,6 +6558,10 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
     </row>
     <row r="170">
       <c r="A170" s="8"/>
@@ -5062,6 +6571,10 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
     </row>
     <row r="171">
       <c r="A171" s="8"/>
@@ -5071,6 +6584,10 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
     </row>
     <row r="172">
       <c r="A172" s="8"/>
@@ -5080,6 +6597,10 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
     </row>
     <row r="173">
       <c r="A173" s="8"/>
@@ -5089,6 +6610,10 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
     </row>
     <row r="174">
       <c r="A174" s="8"/>
@@ -5098,6 +6623,10 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
     </row>
     <row r="175">
       <c r="A175" s="8"/>
@@ -5107,6 +6636,10 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
     </row>
     <row r="176">
       <c r="A176" s="8"/>
@@ -5116,6 +6649,10 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
     </row>
     <row r="177">
       <c r="A177" s="8"/>
@@ -5125,6 +6662,10 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
     </row>
     <row r="178">
       <c r="A178" s="8"/>
@@ -5134,6 +6675,10 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
     </row>
     <row r="179">
       <c r="A179" s="8"/>
@@ -5143,6 +6688,10 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
     </row>
     <row r="180">
       <c r="A180" s="8"/>
@@ -5152,6 +6701,10 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
     </row>
     <row r="181">
       <c r="A181" s="8"/>
@@ -5161,6 +6714,10 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
     </row>
     <row r="182">
       <c r="A182" s="8"/>
@@ -5170,6 +6727,10 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
     </row>
     <row r="183">
       <c r="A183" s="8"/>
@@ -5179,6 +6740,10 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
     </row>
     <row r="184">
       <c r="A184" s="8"/>
@@ -5188,6 +6753,10 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
     </row>
     <row r="185">
       <c r="A185" s="8"/>
@@ -5197,6 +6766,10 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
     </row>
     <row r="186">
       <c r="A186" s="8"/>
@@ -5206,6 +6779,10 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
     </row>
     <row r="187">
       <c r="A187" s="8"/>
@@ -5215,6 +6792,10 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
     </row>
     <row r="188">
       <c r="A188" s="8"/>
@@ -5224,6 +6805,10 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5245,22 +6830,34 @@
         <v>4.0</v>
       </c>
       <c r="B1" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>10.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>16.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>22.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>30.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="H1" s="9">
         <v>40.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="9">
         <v>50.0</v>
+      </c>
+      <c r="J1" s="9">
+        <v>64.0</v>
+      </c>
+      <c r="K1" s="9">
+        <v>100.0</v>
       </c>
     </row>
     <row r="2">
@@ -5268,22 +6865,34 @@
         <v>213392.0</v>
       </c>
       <c r="B2" s="8">
+        <v>214296.0</v>
+      </c>
+      <c r="C2" s="8">
         <v>215368.0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>218152.0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>221416.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>225704.0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
+        <v>226760.0</v>
+      </c>
+      <c r="H2" s="8">
         <v>231088.0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="I2" s="8">
         <v>236520.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>244088.0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>263528.0</v>
       </c>
     </row>
     <row r="3">
@@ -5291,22 +6900,34 @@
         <v>15860.0</v>
       </c>
       <c r="B3" s="8">
+        <v>18020.0</v>
+      </c>
+      <c r="C3" s="8">
         <v>19140.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>22340.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>25620.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>29940.0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
+        <v>30980.0</v>
+      </c>
+      <c r="H3" s="8">
         <v>35300.0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>40740.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>48260.0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>67700.0</v>
       </c>
     </row>
     <row r="4">
@@ -5314,22 +6935,34 @@
         <v>208.86</v>
       </c>
       <c r="B4" s="8">
+        <v>209.75</v>
+      </c>
+      <c r="C4" s="8">
         <v>210.79</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>213.51</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>216.7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>220.89</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
+        <v>221.92</v>
+      </c>
+      <c r="H4" s="8">
         <v>226.14</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>231.45</v>
+      </c>
+      <c r="J4" s="8">
+        <v>238.84</v>
+      </c>
+      <c r="K4" s="8">
+        <v>257.82</v>
       </c>
     </row>
     <row r="5">
@@ -5340,6 +6973,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="8"/>
@@ -5349,6 +6986,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="8"/>
@@ -5358,6 +6999,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="8"/>
@@ -5367,6 +7012,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="8"/>
@@ -5376,6 +7025,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="8"/>
@@ -5385,6 +7038,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
@@ -5394,6 +7051,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="8"/>
@@ -5403,6 +7064,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -5412,6 +7077,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -5421,6 +7090,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
@@ -5430,6 +7103,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
@@ -5439,6 +7116,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
@@ -5448,6 +7129,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
@@ -5457,6 +7142,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
@@ -5466,6 +7155,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
@@ -5475,6 +7168,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
@@ -5484,6 +7181,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="8"/>
@@ -5493,6 +7194,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
@@ -5502,6 +7207,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
@@ -5511,6 +7220,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
@@ -5520,6 +7233,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
@@ -5529,6 +7246,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -5538,6 +7259,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="8"/>
@@ -5547,6 +7272,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -5556,6 +7285,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
@@ -5565,6 +7298,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="8"/>
@@ -5574,6 +7311,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -5583,6 +7324,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -5592,6 +7337,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="8"/>
@@ -5601,6 +7350,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="8"/>
@@ -5610,6 +7363,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -5619,6 +7376,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="8"/>
@@ -5628,6 +7389,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
@@ -5637,6 +7402,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
@@ -5646,6 +7415,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="8"/>
@@ -5655,6 +7428,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
@@ -5664,6 +7441,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="8"/>
@@ -5673,6 +7454,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="8"/>
@@ -5682,6 +7467,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="8"/>
@@ -5691,6 +7480,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="8"/>
@@ -5700,6 +7493,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="8"/>
@@ -5709,6 +7506,10 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47">
       <c r="A47" s="8"/>
@@ -5718,6 +7519,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="8"/>
@@ -5727,6 +7532,10 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="8"/>
@@ -5736,6 +7545,10 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50">
       <c r="A50" s="8"/>
@@ -5745,6 +7558,10 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51">
       <c r="A51" s="8"/>
@@ -5754,6 +7571,10 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="8"/>
@@ -5763,6 +7584,10 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="8"/>
@@ -5772,6 +7597,10 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="8"/>
@@ -5781,6 +7610,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55">
       <c r="A55" s="8"/>
@@ -5790,6 +7623,10 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56">
       <c r="A56" s="8"/>
@@ -5799,6 +7636,10 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
     </row>
     <row r="57">
       <c r="A57" s="8"/>
@@ -5808,6 +7649,10 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58">
       <c r="A58" s="8"/>
@@ -5817,6 +7662,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="8"/>
@@ -5826,6 +7675,10 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60">
       <c r="A60" s="8"/>
@@ -5835,6 +7688,10 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61">
       <c r="A61" s="8"/>
@@ -5844,6 +7701,10 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62">
       <c r="A62" s="8"/>
@@ -5853,6 +7714,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63">
       <c r="A63" s="8"/>
@@ -5862,6 +7727,10 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64">
       <c r="A64" s="8"/>
@@ -5871,6 +7740,10 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
     </row>
     <row r="65">
       <c r="A65" s="8"/>
@@ -5880,6 +7753,10 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66">
       <c r="A66" s="8"/>
@@ -5889,6 +7766,10 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
     </row>
     <row r="67">
       <c r="A67" s="8"/>
@@ -5898,6 +7779,10 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68">
       <c r="A68" s="8"/>
@@ -5907,6 +7792,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
     </row>
     <row r="69">
       <c r="A69" s="8"/>
@@ -5916,6 +7805,10 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70">
       <c r="A70" s="8"/>
@@ -5925,6 +7818,10 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
     </row>
     <row r="71">
       <c r="A71" s="8"/>
@@ -5934,6 +7831,10 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72">
       <c r="A72" s="8"/>
@@ -5943,6 +7844,10 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
     </row>
     <row r="73">
       <c r="A73" s="8"/>
@@ -5952,6 +7857,10 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
     </row>
     <row r="74">
       <c r="A74" s="8"/>
@@ -5961,6 +7870,10 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
     </row>
     <row r="75">
       <c r="A75" s="8"/>
@@ -5970,6 +7883,10 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
     </row>
     <row r="76">
       <c r="A76" s="8"/>
@@ -5979,6 +7896,10 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77">
       <c r="A77" s="8"/>
@@ -5988,6 +7909,10 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
     </row>
     <row r="78">
       <c r="A78" s="8"/>
@@ -5997,6 +7922,10 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
     </row>
     <row r="79">
       <c r="A79" s="8"/>
@@ -6006,6 +7935,10 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
     </row>
     <row r="80">
       <c r="A80" s="8"/>
@@ -6015,6 +7948,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
@@ -6024,6 +7961,10 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="8"/>
@@ -6033,6 +7974,10 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
@@ -6042,6 +7987,10 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
     </row>
     <row r="84">
       <c r="A84" s="8"/>
@@ -6051,6 +8000,10 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
     </row>
     <row r="85">
       <c r="A85" s="8"/>
@@ -6060,6 +8013,10 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
     </row>
     <row r="86">
       <c r="A86" s="8"/>
@@ -6069,6 +8026,10 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
     </row>
     <row r="87">
       <c r="A87" s="8"/>
@@ -6078,6 +8039,10 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
     </row>
     <row r="88">
       <c r="A88" s="8"/>
@@ -6087,6 +8052,10 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
     </row>
     <row r="89">
       <c r="A89" s="8"/>
@@ -6096,6 +8065,10 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
     </row>
     <row r="90">
       <c r="A90" s="8"/>
@@ -6105,6 +8078,10 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
     </row>
     <row r="91">
       <c r="A91" s="8"/>
@@ -6114,6 +8091,10 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
     </row>
     <row r="92">
       <c r="A92" s="8"/>
@@ -6123,6 +8104,10 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
     </row>
     <row r="93">
       <c r="A93" s="8"/>
@@ -6132,6 +8117,10 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
     </row>
     <row r="94">
       <c r="A94" s="8"/>
@@ -6141,6 +8130,10 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
     </row>
     <row r="95">
       <c r="A95" s="8"/>
@@ -6150,6 +8143,10 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
     </row>
     <row r="96">
       <c r="A96" s="8"/>
@@ -6159,6 +8156,10 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
     </row>
     <row r="97">
       <c r="A97" s="8"/>
@@ -6168,6 +8169,10 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
     </row>
     <row r="98">
       <c r="A98" s="8"/>
@@ -6177,6 +8182,10 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="99">
       <c r="A99" s="8"/>
@@ -6186,6 +8195,10 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
     </row>
     <row r="100">
       <c r="A100" s="8"/>
@@ -6195,6 +8208,10 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
     </row>
     <row r="101">
       <c r="A101" s="8"/>
@@ -6204,6 +8221,10 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
     </row>
     <row r="102">
       <c r="A102" s="8"/>
@@ -6213,6 +8234,10 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
     </row>
     <row r="103">
       <c r="A103" s="8"/>
@@ -6222,6 +8247,10 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
     </row>
     <row r="104">
       <c r="A104" s="8"/>
@@ -6231,6 +8260,10 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
     </row>
     <row r="105">
       <c r="A105" s="8"/>
@@ -6240,6 +8273,10 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
     </row>
     <row r="106">
       <c r="A106" s="8"/>
@@ -6249,6 +8286,10 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
     </row>
     <row r="107">
       <c r="A107" s="8"/>
@@ -6258,6 +8299,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
     </row>
     <row r="108">
       <c r="A108" s="8"/>
@@ -6267,6 +8312,10 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
     </row>
     <row r="109">
       <c r="A109" s="8"/>
@@ -6276,6 +8325,10 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
     </row>
     <row r="110">
       <c r="A110" s="8"/>
@@ -6285,6 +8338,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
     </row>
     <row r="111">
       <c r="A111" s="8"/>
@@ -6294,6 +8351,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
     </row>
     <row r="112">
       <c r="A112" s="8"/>
@@ -6303,6 +8364,10 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
     </row>
     <row r="113">
       <c r="A113" s="8"/>
@@ -6312,6 +8377,10 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
     </row>
     <row r="114">
       <c r="A114" s="8"/>
@@ -6321,6 +8390,10 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
     </row>
     <row r="115">
       <c r="A115" s="8"/>
@@ -6330,6 +8403,10 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
     </row>
     <row r="116">
       <c r="A116" s="8"/>
@@ -6339,6 +8416,10 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
     </row>
     <row r="117">
       <c r="A117" s="8"/>
@@ -6348,6 +8429,10 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
     </row>
     <row r="118">
       <c r="A118" s="8"/>
@@ -6357,6 +8442,10 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
     </row>
     <row r="119">
       <c r="A119" s="8"/>
@@ -6366,6 +8455,10 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
     </row>
     <row r="120">
       <c r="A120" s="8"/>
@@ -6375,6 +8468,10 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
     </row>
     <row r="121">
       <c r="A121" s="8"/>
@@ -6384,6 +8481,10 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
     </row>
     <row r="122">
       <c r="A122" s="8"/>
@@ -6393,6 +8494,10 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
     </row>
     <row r="123">
       <c r="A123" s="8"/>
@@ -6402,6 +8507,10 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
     </row>
     <row r="124">
       <c r="A124" s="8"/>
@@ -6411,6 +8520,10 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
     </row>
     <row r="125">
       <c r="A125" s="8"/>
@@ -6420,6 +8533,10 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
     </row>
     <row r="126">
       <c r="A126" s="8"/>
@@ -6429,6 +8546,10 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
     </row>
     <row r="127">
       <c r="A127" s="8"/>
@@ -6438,6 +8559,10 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
     </row>
     <row r="128">
       <c r="A128" s="8"/>
@@ -6447,6 +8572,10 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
     </row>
     <row r="129">
       <c r="A129" s="8"/>
@@ -6456,6 +8585,10 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
     </row>
     <row r="130">
       <c r="A130" s="8"/>
@@ -6465,6 +8598,10 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
     </row>
     <row r="131">
       <c r="A131" s="8"/>
@@ -6474,6 +8611,10 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
     </row>
     <row r="132">
       <c r="A132" s="8"/>
@@ -6483,6 +8624,10 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
     </row>
     <row r="133">
       <c r="A133" s="8"/>
@@ -6492,6 +8637,10 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
     </row>
     <row r="134">
       <c r="A134" s="8"/>
@@ -6501,6 +8650,10 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
     </row>
     <row r="135">
       <c r="A135" s="8"/>
@@ -6510,6 +8663,10 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
     </row>
     <row r="136">
       <c r="A136" s="8"/>
@@ -6519,6 +8676,10 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
     </row>
     <row r="137">
       <c r="A137" s="8"/>
@@ -6528,6 +8689,10 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
     </row>
     <row r="138">
       <c r="A138" s="8"/>
@@ -6537,6 +8702,10 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
     </row>
     <row r="139">
       <c r="A139" s="8"/>
@@ -6546,6 +8715,10 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
     </row>
     <row r="140">
       <c r="A140" s="8"/>
@@ -6555,6 +8728,10 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
     </row>
     <row r="141">
       <c r="A141" s="8"/>
@@ -6564,6 +8741,10 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
     </row>
     <row r="142">
       <c r="A142" s="8"/>
@@ -6573,6 +8754,10 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
     </row>
     <row r="143">
       <c r="A143" s="8"/>
@@ -6582,6 +8767,10 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
     </row>
     <row r="144">
       <c r="A144" s="8"/>
@@ -6591,6 +8780,10 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
     </row>
     <row r="145">
       <c r="A145" s="8"/>
@@ -6600,6 +8793,10 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
     </row>
     <row r="146">
       <c r="A146" s="8"/>
@@ -6609,6 +8806,10 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
     </row>
     <row r="147">
       <c r="A147" s="8"/>
@@ -6618,6 +8819,10 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
     </row>
     <row r="148">
       <c r="A148" s="8"/>
@@ -6627,6 +8832,10 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
     </row>
     <row r="149">
       <c r="A149" s="8"/>
@@ -6636,6 +8845,10 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
     </row>
     <row r="150">
       <c r="A150" s="8"/>
@@ -6645,6 +8858,10 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
     </row>
     <row r="151">
       <c r="A151" s="8"/>
@@ -6654,6 +8871,10 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
     </row>
     <row r="152">
       <c r="A152" s="8"/>
@@ -6663,6 +8884,10 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
     </row>
     <row r="153">
       <c r="A153" s="8"/>
@@ -6672,6 +8897,10 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
     </row>
     <row r="154">
       <c r="A154" s="8"/>
@@ -6681,6 +8910,10 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
     </row>
     <row r="155">
       <c r="A155" s="8"/>
@@ -6690,6 +8923,10 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
     </row>
     <row r="156">
       <c r="A156" s="8"/>
@@ -6699,6 +8936,10 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
     </row>
     <row r="157">
       <c r="A157" s="8"/>
@@ -6708,6 +8949,10 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
     </row>
     <row r="158">
       <c r="A158" s="8"/>
@@ -6717,6 +8962,10 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
     </row>
     <row r="159">
       <c r="A159" s="8"/>
@@ -6726,6 +8975,10 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
     </row>
     <row r="160">
       <c r="A160" s="8"/>
@@ -6735,6 +8988,10 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
     </row>
     <row r="161">
       <c r="A161" s="8"/>
@@ -6744,6 +9001,10 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
     </row>
     <row r="162">
       <c r="A162" s="8"/>
@@ -6753,6 +9014,10 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
     </row>
     <row r="163">
       <c r="A163" s="8"/>
@@ -6762,6 +9027,10 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
     </row>
     <row r="164">
       <c r="A164" s="8"/>
@@ -6771,6 +9040,10 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
     </row>
     <row r="165">
       <c r="A165" s="8"/>
@@ -6780,6 +9053,10 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
     </row>
     <row r="166">
       <c r="A166" s="8"/>
@@ -6789,6 +9066,10 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
     </row>
     <row r="167">
       <c r="A167" s="8"/>
@@ -6798,6 +9079,10 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
     </row>
     <row r="168">
       <c r="A168" s="8"/>
@@ -6807,6 +9092,10 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
     </row>
     <row r="169">
       <c r="A169" s="8"/>
@@ -6816,6 +9105,10 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
     </row>
     <row r="170">
       <c r="A170" s="8"/>
@@ -6825,6 +9118,10 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
     </row>
     <row r="171">
       <c r="A171" s="8"/>
@@ -6834,6 +9131,10 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
     </row>
     <row r="172">
       <c r="A172" s="8"/>
@@ -6843,6 +9144,10 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
     </row>
     <row r="173">
       <c r="A173" s="8"/>
@@ -6852,6 +9157,10 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
     </row>
     <row r="174">
       <c r="A174" s="8"/>
@@ -6861,6 +9170,10 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
     </row>
     <row r="175">
       <c r="A175" s="8"/>
@@ -6870,6 +9183,10 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
     </row>
     <row r="176">
       <c r="A176" s="8"/>
@@ -6879,6 +9196,10 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
     </row>
     <row r="177">
       <c r="A177" s="8"/>
@@ -6888,6 +9209,10 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
     </row>
     <row r="178">
       <c r="A178" s="8"/>
@@ -6897,6 +9222,10 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
     </row>
     <row r="179">
       <c r="A179" s="8"/>
@@ -6906,6 +9235,10 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
     </row>
     <row r="180">
       <c r="A180" s="8"/>
@@ -6915,6 +9248,10 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
     </row>
     <row r="181">
       <c r="A181" s="8"/>
@@ -6924,6 +9261,10 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
     </row>
     <row r="182">
       <c r="A182" s="8"/>
@@ -6933,6 +9274,10 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
     </row>
     <row r="183">
       <c r="A183" s="8"/>
@@ -6942,6 +9287,10 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
     </row>
     <row r="184">
       <c r="A184" s="8"/>
@@ -6951,6 +9300,10 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
     </row>
     <row r="185">
       <c r="A185" s="8"/>
@@ -6960,6 +9313,10 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
     </row>
     <row r="186">
       <c r="A186" s="8"/>
@@ -6969,6 +9326,10 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
     </row>
     <row r="187">
       <c r="A187" s="8"/>
@@ -6978,6 +9339,10 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
     </row>
     <row r="188">
       <c r="A188" s="8"/>
@@ -6987,6 +9352,10 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
